--- a/cube_mazes/23.xlsx
+++ b/cube_mazes/23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Javascript_Misc\maze_messing_1\cube_mazes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hold_this_for_a_sec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0D0F7D-0CCA-4633-8910-98CF4AD383A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685E6B81-9FC3-4738-8549-3D6BE47B658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +357,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -518,9 +524,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -566,7 +573,107 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -890,7 +997,7 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+      <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,37 +1118,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>1</v>
@@ -1050,43 +1157,43 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="s">
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="s">
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="s">
         <v>1</v>
@@ -1098,16 +1205,16 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="s">
         <v>0</v>
       </c>
       <c r="AH2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="s">
         <v>0</v>
@@ -1118,25 +1225,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
@@ -1148,34 +1255,34 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="s">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
         <v>0</v>
@@ -1202,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="s">
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="s">
         <v>0</v>
       </c>
       <c r="AH3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="s">
         <v>0</v>
@@ -1225,70 +1332,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="s">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="s">
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="s">
         <v>1</v>
@@ -1315,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="s">
         <v>0</v>
@@ -1332,28 +1439,28 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
@@ -1362,37 +1469,37 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="s">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="s">
         <v>0</v>
@@ -1401,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="s">
         <v>0</v>
@@ -1416,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="s">
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="s">
         <v>0</v>
       </c>
       <c r="AH5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="s">
         <v>0</v>
@@ -1439,37 +1546,37 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
@@ -1478,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="s">
         <v>1</v>
@@ -1490,19 +1597,19 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="s">
         <v>1</v>
@@ -1514,28 +1621,28 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="s">
         <v>1</v>
       </c>
       <c r="AC6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="s">
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="s">
         <v>0</v>
@@ -1546,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
@@ -1570,33 +1677,33 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="s">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T7" t="s">
@@ -1606,43 +1713,43 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="s">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="s">
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="s">
         <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="s">
         <v>0</v>
       </c>
       <c r="AF7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="s">
         <v>0</v>
       </c>
       <c r="AH7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="s">
         <v>0</v>
@@ -1653,103 +1760,103 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="s">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="s">
         <v>0</v>
@@ -1760,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -1778,31 +1885,31 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="s">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="s">
         <v>0</v>
@@ -1810,11 +1917,11 @@
       <c r="R9" t="s">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="s">
         <v>0</v>
@@ -1826,13 +1933,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
         <v>0</v>
       </c>
       <c r="Z9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="s">
         <v>0</v>
@@ -1844,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="s">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="s">
         <v>0</v>
@@ -1867,103 +1974,103 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="s">
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s">
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="s">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="s">
         <v>0</v>
@@ -1974,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>0</v>
@@ -1998,19 +2105,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
         <v>0</v>
@@ -2022,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="s">
         <v>0</v>
@@ -2052,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="s">
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="s">
         <v>0</v>
@@ -2070,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="s">
         <v>0</v>
@@ -2081,55 +2188,55 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="s">
         <v>1</v>
@@ -2138,46 +2245,46 @@
         <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
         <v>0</v>
       </c>
       <c r="Z12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="s">
         <v>0</v>
@@ -2188,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -2206,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
         <v>0</v>
@@ -2230,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
         <v>0</v>
@@ -2254,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
         <v>0</v>
@@ -2266,25 +2373,25 @@
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="s">
         <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="s">
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="s">
         <v>0</v>
       </c>
       <c r="AH13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="s">
         <v>0</v>
@@ -2295,52 +2402,52 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="s">
         <v>1</v>
@@ -2352,46 +2459,46 @@
         <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
         <v>0</v>
@@ -2402,13 +2509,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -2432,27 +2539,27 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="s">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="s">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T15" t="s">
@@ -2462,43 +2569,43 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="s">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="s">
         <v>0</v>
       </c>
       <c r="AB15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="s">
         <v>0</v>
       </c>
       <c r="AD15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="s">
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="s">
         <v>0</v>
       </c>
       <c r="AH15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="s">
         <v>0</v>
@@ -2509,103 +2616,103 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="s">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>1</v>
-      </c>
-      <c r="S16" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="s">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="s">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="s">
         <v>0</v>
       </c>
       <c r="AB16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="s">
         <v>0</v>
@@ -2616,31 +2723,31 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>0</v>
@@ -2652,25 +2759,25 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="s">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="s">
         <v>0</v>
@@ -2682,37 +2789,37 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="s">
         <v>0</v>
       </c>
       <c r="Z17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="s">
         <v>0</v>
       </c>
       <c r="AB17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="s">
         <v>0</v>
       </c>
       <c r="AD17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="s">
         <v>0</v>
       </c>
       <c r="AH17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="s">
         <v>0</v>
@@ -2726,40 +2833,40 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="s">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
         <v>0</v>
@@ -2771,34 +2878,34 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T18" t="s">
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" t="s">
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="s">
         <v>1</v>
       </c>
       <c r="AA18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="s">
         <v>1</v>
@@ -2807,16 +2914,16 @@
         <v>0</v>
       </c>
       <c r="AD18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="s">
         <v>0</v>
@@ -2836,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
@@ -2854,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="s">
         <v>0</v>
@@ -2875,12 +2982,12 @@
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T19" t="s">
@@ -2890,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="s">
         <v>0</v>
@@ -2914,19 +3021,19 @@
         <v>0</v>
       </c>
       <c r="AD19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="s">
         <v>0</v>
       </c>
       <c r="AH19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="s">
         <v>0</v>
@@ -2940,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -2982,19 +3089,19 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="s">
         <v>1</v>
       </c>
-      <c r="S20" t="s">
-        <v>1</v>
+      <c r="S20" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T20" t="s">
         <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
         <v>1</v>
@@ -3006,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="Y20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="s">
         <v>1</v>
@@ -3018,22 +3125,22 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="s">
         <v>1</v>
       </c>
       <c r="AF20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="s">
         <v>0</v>
       </c>
       <c r="AH20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="s">
         <v>0</v>
@@ -3050,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -3068,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
         <v>0</v>
@@ -3080,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
         <v>0</v>
@@ -3092,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="T21" t="s">
         <v>1</v>
@@ -3110,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="s">
         <v>0</v>
@@ -3119,28 +3226,28 @@
         <v>1</v>
       </c>
       <c r="AA21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="s">
         <v>0</v>
       </c>
       <c r="AD21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="s">
         <v>0</v>
       </c>
       <c r="AH21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="s">
         <v>0</v>
@@ -3154,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -3196,25 +3303,25 @@
         <v>1</v>
       </c>
       <c r="Q22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S22" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T22" t="s">
         <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="s">
         <v>1</v>
@@ -3226,28 +3333,28 @@
         <v>1</v>
       </c>
       <c r="AA22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="s">
         <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="s">
         <v>0</v>
@@ -3261,13 +3368,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>1</v>
@@ -3276,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>0</v>
@@ -3294,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>0</v>
@@ -3306,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>1</v>
-      </c>
-      <c r="S23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="s">
         <v>0</v>
@@ -3336,25 +3443,25 @@
         <v>0</v>
       </c>
       <c r="AB23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="s">
         <v>0</v>
       </c>
       <c r="AD23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="s">
         <v>0</v>
       </c>
       <c r="AH23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="s">
         <v>0</v>
@@ -3365,64 +3472,64 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="s">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>1</v>
-      </c>
-      <c r="S24" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="s">
         <v>1</v>
@@ -3437,31 +3544,31 @@
         <v>0</v>
       </c>
       <c r="Z24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="s">
         <v>0</v>
       </c>
       <c r="AD24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="s">
         <v>1</v>
       </c>
       <c r="AF24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="s">
         <v>0</v>
       </c>
       <c r="AH24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="s">
         <v>0</v>
@@ -3472,19 +3579,19 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>0</v>
@@ -3496,43 +3603,43 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="s">
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="s">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>1</v>
-      </c>
-      <c r="S25" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="s">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="s">
         <v>0</v>
@@ -3544,31 +3651,31 @@
         <v>0</v>
       </c>
       <c r="Z25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="s">
         <v>0</v>
       </c>
       <c r="AB25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="s">
         <v>0</v>
       </c>
       <c r="AD25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="s">
         <v>0</v>
       </c>
       <c r="AH25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="s">
         <v>0</v>
@@ -3579,103 +3686,103 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="s">
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>1</v>
-      </c>
-      <c r="S26" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="s">
         <v>0</v>
       </c>
       <c r="Z26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="s">
         <v>0</v>
       </c>
       <c r="AH26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="s">
         <v>0</v>
@@ -3686,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
@@ -3704,39 +3811,39 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="s">
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="s">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="s">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>1</v>
-      </c>
-      <c r="S27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T27" t="s">
@@ -3746,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="s">
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="s">
         <v>0</v>
@@ -3763,20 +3870,20 @@
       <c r="AA27" t="s">
         <v>0</v>
       </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AB27" t="s">
         <v>0</v>
       </c>
       <c r="AC27" t="s">
         <v>0</v>
       </c>
       <c r="AD27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="s">
         <v>0</v>
@@ -3793,103 +3900,103 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="s">
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S28" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="s">
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="s">
         <v>0</v>
       </c>
       <c r="AB28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="s">
         <v>0</v>
       </c>
       <c r="AF28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="s">
         <v>0</v>
@@ -3906,19 +4013,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>0</v>
@@ -3936,21 +4043,21 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="s">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>1</v>
-      </c>
-      <c r="S29" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T29" t="s">
@@ -3960,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="s">
         <v>0</v>
@@ -3972,25 +4079,25 @@
         <v>0</v>
       </c>
       <c r="Z29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="s">
         <v>0</v>
       </c>
       <c r="AB29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="s">
         <v>0</v>
       </c>
       <c r="AD29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="s">
         <v>0</v>
       </c>
       <c r="AF29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="s">
         <v>0</v>
@@ -4007,103 +4114,103 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="s">
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>1</v>
-      </c>
-      <c r="S30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="s">
         <v>0</v>
       </c>
       <c r="Z30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="s">
         <v>0</v>
       </c>
       <c r="AD30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="s">
         <v>0</v>
@@ -4114,19 +4221,19 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>0</v>
@@ -4138,25 +4245,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="s">
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="s">
         <v>0</v>
@@ -4164,23 +4271,23 @@
       <c r="R31" t="s">
         <v>0</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="s">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" t="s">
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="s">
         <v>0</v>
@@ -4192,25 +4299,25 @@
         <v>0</v>
       </c>
       <c r="AB31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="s">
         <v>0</v>
       </c>
       <c r="AD31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="s">
         <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="s">
         <v>0</v>
       </c>
       <c r="AH31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="s">
         <v>0</v>
@@ -4221,103 +4328,103 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="s">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>1</v>
-      </c>
-      <c r="S32" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="s">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="s">
         <v>0</v>
       </c>
       <c r="Z32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="s">
         <v>0</v>
       </c>
       <c r="AD32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="s">
         <v>0</v>
       </c>
       <c r="AF32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="s">
         <v>0</v>
@@ -4328,67 +4435,67 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="s">
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="s">
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="s">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>1</v>
-      </c>
-      <c r="S33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="s">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" t="s">
         <v>0</v>
@@ -4400,31 +4507,31 @@
         <v>0</v>
       </c>
       <c r="Z33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="s">
         <v>0</v>
       </c>
       <c r="AB33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="s">
         <v>0</v>
       </c>
       <c r="AD33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="s">
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="s">
         <v>0</v>
       </c>
       <c r="AH33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="s">
         <v>0</v>
@@ -4435,103 +4542,103 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="s">
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s">
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>1</v>
-      </c>
-      <c r="S34" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="s">
         <v>0</v>
       </c>
       <c r="Z34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="s">
         <v>0</v>
       </c>
       <c r="AH34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="s">
         <v>0</v>
@@ -4645,7 +4752,57 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AI35">
+  <conditionalFormatting sqref="A1:AI1 A2:A6 G2:AI6 A7:AI9 A10:N14 R10:AI14 A15:AI35">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:F5">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:F6">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:Q10">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:Q11">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:Q12">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:Q13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:Q14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
